--- a/ExcelToXML/jaffe_test.xlsx
+++ b/ExcelToXML/jaffe_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t xml:space="preserve">LfdNrNeu</t>
   </si>
@@ -161,6 +161,111 @@
   </si>
   <si>
     <t xml:space="preserve">Priori et conventui S. Andreae (in Scotia) bona ac privilegia quaedam asserit. Liber cartarum S. Andreae p. 81.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIXTUS III.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1177—1178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naerbio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discedit. Romoaldi Salern. Annal. 1178 in MG. SS. XIX. 459. Bosonis card. Vita Alexandri III. ap. Watterich II. 447. De tempore fugae cf. Reuter III. 761.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1178. 1180 Aug. 28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tusculani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ex insinuatione bonae“.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Monasterii Corbeiensis (dioc. Ambian.) bona alienari vetat. (In bulla legitur„b. m. Iohannes abbas“; quibus ex verbis tempus patet.) In bibl. nat. Paris. Cart. blanc de Corbie ms. lat. 17759. s. XIII. —XIV. f. 37, Ms. lat. 17767. f. 5, Coll. Grenier t. 53. f. 93</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1178 1180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1180 c. Mai. Iun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velletri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Verecundum nobis est“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Simonem) episcopum Meldensem de contempto mandato apostolico vehementer obiurgat; iterum iterumque ei mandat, ut H(erveo) canonico integram Hugonis de Oratorio nuper defuncti praebendam assignet vel dimidiam eius tandem integret; alioquin (Matthaeum) episcopum Trecensem mandatum suum impleturum esse scribit. Loewenfeld Epistolae p. 190.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai. Iun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1178— 1179 Mart. 30. 31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laterani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13256 (8656)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Quos sinceriori“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willelmo, abbati S. Dionysii, eiusque successoribus usum mitrae, anuli, sandaliorum concedit. (Huius privilegii duo autographa exstant in tab. nat. Paris. L. 231. n. 43; quorum alterum „III.“, alterum „II. kal. Aprilis“ praebet.) Félibien Hist. de St. Denys rec. d. pièces p. 101, Doublet Hist. de St. Denys p. 508, Migne 200 p. 1200.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1178—1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. 31</t>
   </si>
 </sst>
 </file>
@@ -170,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,8 +312,24 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,13 +342,34 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -238,7 +380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,17 +408,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,8 +434,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -297,6 +463,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Good" xfId="20"/>
+    <cellStyle name="Excel Built-in Check Cell" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -347,7 +514,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -355,7 +522,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3F3F3F"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -366,13 +533,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -664,6 +831,173 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4170</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4107</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3142</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>13588</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3251</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3216</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>13662</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="n">
+        <v>1180</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2838</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2803</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>13256</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>8656</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToXML/jaffe_test.xlsx
+++ b/ExcelToXML/jaffe_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t xml:space="preserve">LfdNrNeu</t>
   </si>
@@ -266,6 +266,60 @@
   </si>
   <si>
     <t xml:space="preserve">30. 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1164—1176</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ad hoc nos disponente“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigaldo, abbati Castrensi (dioec. Albiensis), bullam dat, qua monasterii privilegia et libertatem confirmat, imposito fratribus quinque solidorum Melgoriensium censu annuo. (Fragmenta.) In bibl. nat. Paris. Coll. Doat t. 117. f. 57b et 58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1161—1175 Ans. Sept.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferentini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Super illo“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S(yro) archiepiscopo et consulibus lanuensibus. („Dat. Xmrrr. id. Sept.“) paugtHarttung Iter p. 275.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1161—1175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. 1180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tusculani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Religiosam vitam eligentibus“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthenonis Wechterswinklensis protectionem suscipit ac disciplinam Cisterciensem „ante generale concilium“ susceptam, possessiones, privilegia confirmat. Schultes Hist. Schrift. I. 176, ubi bulla clausula privata Alexandro IV. et anno 1260 ascribitur; Himmelstein in Arch. d. hist. Ver. f. Unterfranken XV. 135 anno c. 1180 eam attribuit; rectene fecerit, affirmare nequeo.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +467,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,6 +490,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -533,13 +595,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="10:10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -866,43 +928,43 @@
       <c r="B8" s="0" t="n">
         <v>3142</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="3" t="n">
         <v>13588</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -913,43 +975,43 @@
       <c r="B9" s="0" t="n">
         <v>3216</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="3" t="n">
         <v>13662</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="n">
         <v>1180</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -958,47 +1020,170 @@
       <c r="B10" s="0" t="n">
         <v>2803</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="3" t="n">
         <v>13256</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="3" t="n">
         <v>8656</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>12629</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1898</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>12409</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3312</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3277</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>13723</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
